--- a/src/main/java/Resources/TestDataHN1.xlsx
+++ b/src/main/java/Resources/TestDataHN1.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20391"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SeleniumMaterial-StudentsDistribution\06_DataDrivenTesting\05_SeleniumParameterization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053AB3F1-5584-43CA-A266-7A0FCA71AD9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{053AB3F1-5584-43CA-A266-7A0FCA71AD9D}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="2910" yWindow="2910" windowWidth="15390" windowHeight="9530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="9530" windowWidth="15390" xWindow="2910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="2910"/>
   </bookViews>
   <sheets>
-    <sheet name="RegTestData" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="RegTestData" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet2" r:id="rId2" sheetId="2"/>
+    <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>Password</t>
   </si>
@@ -109,12 +109,16 @@
   </si>
   <si>
     <t>test88</t>
+  </si>
+  <si>
+    <t>Create an Account</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -178,24 +182,24 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -212,10 +216,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -250,7 +254,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -302,7 +306,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -407,7 +411,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -416,13 +420,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -432,7 +436,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -441,7 +445,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -450,7 +454,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -460,12 +464,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -496,7 +500,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -515,7 +519,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -527,7 +531,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -536,12 +540,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.6328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.6328125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.54296875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.453125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.81640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="16.81640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.50390625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -580,7 +584,9 @@
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -598,7 +604,9 @@
       <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -616,7 +624,9 @@
       <c r="E4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
@@ -634,7 +644,9 @@
       <c r="E5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
@@ -652,7 +664,9 @@
       <c r="E6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
@@ -670,7 +684,9 @@
       <c r="E7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
@@ -688,43 +704,45 @@
       <c r="E8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink r:id="rId1" ref="C2" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink r:id="rId2" ref="C3" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink r:id="rId3" ref="C4" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink r:id="rId4" ref="C5" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink r:id="rId5" ref="C6" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink r:id="rId6" ref="C7" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink r:id="rId7" ref="C8" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId8"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId8" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/main/java/Resources/TestDataHN1.xlsx
+++ b/src/main/java/Resources/TestDataHN1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SeleniumMaterial-StudentsDistribution\06_DataDrivenTesting\05_SeleniumParameterization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\softw\IdeaProjects\PrasadProject_STL\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{053AB3F1-5584-43CA-A266-7A0FCA71AD9D}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{8C7C64AC-84F6-4889-A843-5DD02ED5687F}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47"/>
   <bookViews>
     <workbookView windowHeight="9530" windowWidth="15390" xWindow="2910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="2910"/>
   </bookViews>
@@ -535,7 +535,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
